--- a/ProbableCasesOverTimeByCounty/2021-03-08.xlsx
+++ b/ProbableCasesOverTimeByCounty/2021-03-08.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="385">
   <si>
-    <t>COVID-19 Probable Cases by County, 11/1/2020 - 03/07/21 at 9:30 AM CST</t>
+    <t>COVID-19 Probable Cases by County, 11/1/2020 - 03/08/21 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -402,6 +402,9 @@
   </si>
   <si>
     <t>Probable 2021-03-07</t>
+  </si>
+  <si>
+    <t>Probable 2021-03-08</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1407,6 +1410,7 @@
     <col min="126" max="126" width="12.0" customWidth="true"/>
     <col min="127" max="127" width="12.0" customWidth="true"/>
     <col min="128" max="128" width="12.0" customWidth="true"/>
+    <col min="129" max="129" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1804,10 +1808,13 @@
       <c r="DX3" t="s" s="10">
         <v>129</v>
       </c>
+      <c r="DY3" t="s" s="10">
+        <v>130</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" t="n">
         <v>343.0</v>
@@ -2188,12 +2195,15 @@
         <v>1268.0</v>
       </c>
       <c r="DX4" t="n">
+        <v>1268.0</v>
+      </c>
+      <c r="DY4" t="n">
         <v>1268.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2574,12 +2584,15 @@
         <v>0.0</v>
       </c>
       <c r="DX5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B6" t="n">
         <v>605.0</v>
@@ -2960,12 +2973,15 @@
         <v>3318.0</v>
       </c>
       <c r="DX6" t="n">
+        <v>3318.0</v>
+      </c>
+      <c r="DY6" t="n">
         <v>3318.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B7" t="n">
         <v>17.0</v>
@@ -3346,12 +3362,15 @@
         <v>275.0</v>
       </c>
       <c r="DX7" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="DY7" t="n">
         <v>277.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B8" t="n">
         <v>27.0</v>
@@ -3732,12 +3751,15 @@
         <v>100.0</v>
       </c>
       <c r="DX8" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="DY8" t="n">
         <v>100.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B9" t="n">
         <v>2.0</v>
@@ -4118,12 +4140,15 @@
         <v>42.0</v>
       </c>
       <c r="DX9" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="DY9" t="n">
         <v>42.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B10" t="n">
         <v>223.0</v>
@@ -4504,12 +4529,15 @@
         <v>1353.0</v>
       </c>
       <c r="DX10" t="n">
+        <v>1353.0</v>
+      </c>
+      <c r="DY10" t="n">
         <v>1353.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B11" t="n">
         <v>44.0</v>
@@ -4890,12 +4918,15 @@
         <v>299.0</v>
       </c>
       <c r="DX11" t="n">
+        <v>305.0</v>
+      </c>
+      <c r="DY11" t="n">
         <v>305.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B12" t="n">
         <v>48.0</v>
@@ -5276,12 +5307,15 @@
         <v>215.0</v>
       </c>
       <c r="DX12" t="n">
+        <v>215.0</v>
+      </c>
+      <c r="DY12" t="n">
         <v>215.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B13" t="n">
         <v>22.0</v>
@@ -5662,12 +5696,15 @@
         <v>365.0</v>
       </c>
       <c r="DX13" t="n">
+        <v>365.0</v>
+      </c>
+      <c r="DY13" t="n">
         <v>365.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B14" t="n">
         <v>339.0</v>
@@ -6049,11 +6086,14 @@
       </c>
       <c r="DX14" t="n">
         <v>1935.0</v>
+      </c>
+      <c r="DY14" t="n">
+        <v>1941.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B15" t="n">
         <v>60.0</v>
@@ -6434,12 +6474,15 @@
         <v>169.0</v>
       </c>
       <c r="DX15" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="DY15" t="n">
         <v>169.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B16" t="n">
         <v>28.0</v>
@@ -6820,12 +6863,15 @@
         <v>371.0</v>
       </c>
       <c r="DX16" t="n">
+        <v>372.0</v>
+      </c>
+      <c r="DY16" t="n">
         <v>372.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -7206,12 +7252,15 @@
         <v>0.0</v>
       </c>
       <c r="DX17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B18" t="n">
         <v>12314.0</v>
@@ -7593,11 +7642,14 @@
       </c>
       <c r="DX18" t="n">
         <v>28990.0</v>
+      </c>
+      <c r="DY18" t="n">
+        <v>29485.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B19" t="n">
         <v>17.0</v>
@@ -7978,12 +8030,15 @@
         <v>116.0</v>
       </c>
       <c r="DX19" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="DY19" t="n">
         <v>116.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B20" t="n">
         <v>2.0</v>
@@ -8364,12 +8419,15 @@
         <v>8.0</v>
       </c>
       <c r="DX20" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="DY20" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B21" t="n">
         <v>39.0</v>
@@ -8750,12 +8808,15 @@
         <v>292.0</v>
       </c>
       <c r="DX21" t="n">
+        <v>292.0</v>
+      </c>
+      <c r="DY21" t="n">
         <v>292.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B22" t="n">
         <v>457.0</v>
@@ -9136,12 +9197,15 @@
         <v>2054.0</v>
       </c>
       <c r="DX22" t="n">
+        <v>2067.0</v>
+      </c>
+      <c r="DY22" t="n">
         <v>2067.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B23" t="n">
         <v>187.0</v>
@@ -9523,11 +9587,14 @@
       </c>
       <c r="DX23" t="n">
         <v>5333.0</v>
+      </c>
+      <c r="DY23" t="n">
+        <v>5353.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B24" t="n">
         <v>1120.0</v>
@@ -9908,12 +9975,15 @@
         <v>3739.0</v>
       </c>
       <c r="DX24" t="n">
+        <v>3739.0</v>
+      </c>
+      <c r="DY24" t="n">
         <v>3739.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B25" t="n">
         <v>10.0</v>
@@ -10294,12 +10364,15 @@
         <v>80.0</v>
       </c>
       <c r="DX25" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="DY25" t="n">
         <v>81.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B26" t="n">
         <v>7.0</v>
@@ -10680,12 +10753,15 @@
         <v>60.0</v>
       </c>
       <c r="DX26" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="DY26" t="n">
         <v>60.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B27" t="n">
         <v>19.0</v>
@@ -11066,12 +11142,15 @@
         <v>112.0</v>
       </c>
       <c r="DX27" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="DY27" t="n">
         <v>112.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B28" t="n">
         <v>350.0</v>
@@ -11452,12 +11531,15 @@
         <v>2216.0</v>
       </c>
       <c r="DX28" t="n">
+        <v>2216.0</v>
+      </c>
+      <c r="DY28" t="n">
         <v>2216.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B29" t="n">
         <v>52.0</v>
@@ -11839,11 +11921,14 @@
       </c>
       <c r="DX29" t="n">
         <v>396.0</v>
+      </c>
+      <c r="DY29" t="n">
+        <v>398.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B30" t="n">
         <v>39.0</v>
@@ -12225,11 +12310,14 @@
       </c>
       <c r="DX30" t="n">
         <v>454.0</v>
+      </c>
+      <c r="DY30" t="n">
+        <v>456.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B31" t="n">
         <v>51.0</v>
@@ -12610,12 +12698,15 @@
         <v>290.0</v>
       </c>
       <c r="DX31" t="n">
+        <v>290.0</v>
+      </c>
+      <c r="DY31" t="n">
         <v>290.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B32" t="n">
         <v>14.0</v>
@@ -12996,12 +13087,15 @@
         <v>399.0</v>
       </c>
       <c r="DX32" t="n">
+        <v>399.0</v>
+      </c>
+      <c r="DY32" t="n">
         <v>399.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B33" t="n">
         <v>89.0</v>
@@ -13382,12 +13476,15 @@
         <v>559.0</v>
       </c>
       <c r="DX33" t="n">
+        <v>559.0</v>
+      </c>
+      <c r="DY33" t="n">
         <v>559.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
@@ -13768,12 +13865,15 @@
         <v>0.0</v>
       </c>
       <c r="DX34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY34" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B35" t="n">
         <v>74.0</v>
@@ -14154,12 +14254,15 @@
         <v>391.0</v>
       </c>
       <c r="DX35" t="n">
+        <v>391.0</v>
+      </c>
+      <c r="DY35" t="n">
         <v>391.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B36" t="n">
         <v>16.0</v>
@@ -14540,12 +14643,15 @@
         <v>148.0</v>
       </c>
       <c r="DX36" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="DY36" t="n">
         <v>148.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B37" t="n">
         <v>246.0</v>
@@ -14927,11 +15033,14 @@
       </c>
       <c r="DX37" t="n">
         <v>667.0</v>
+      </c>
+      <c r="DY37" t="n">
+        <v>668.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B38" t="n">
         <v>52.0</v>
@@ -15312,12 +15421,15 @@
         <v>251.0</v>
       </c>
       <c r="DX38" t="n">
+        <v>251.0</v>
+      </c>
+      <c r="DY38" t="n">
         <v>251.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
@@ -15698,12 +15810,15 @@
         <v>0.0</v>
       </c>
       <c r="DX39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY39" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B40" t="n">
         <v>512.0</v>
@@ -16084,12 +16199,15 @@
         <v>1816.0</v>
       </c>
       <c r="DX40" t="n">
+        <v>1816.0</v>
+      </c>
+      <c r="DY40" t="n">
         <v>1816.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B41" t="n">
         <v>22.0</v>
@@ -16470,12 +16588,15 @@
         <v>23.0</v>
       </c>
       <c r="DX41" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DY41" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B42" t="n">
         <v>7.0</v>
@@ -16856,12 +16977,15 @@
         <v>81.0</v>
       </c>
       <c r="DX42" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="DY42" t="n">
         <v>81.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B43" t="n">
         <v>7.0</v>
@@ -17242,12 +17366,15 @@
         <v>28.0</v>
       </c>
       <c r="DX43" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="DY43" t="n">
         <v>28.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B44" t="n">
         <v>41.0</v>
@@ -17628,12 +17755,15 @@
         <v>222.0</v>
       </c>
       <c r="DX44" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="DY44" t="n">
         <v>222.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B45" t="n">
         <v>27.0</v>
@@ -18014,12 +18144,15 @@
         <v>236.0</v>
       </c>
       <c r="DX45" t="n">
+        <v>236.0</v>
+      </c>
+      <c r="DY45" t="n">
         <v>236.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B46" t="n">
         <v>535.0</v>
@@ -18401,11 +18534,14 @@
       </c>
       <c r="DX46" t="n">
         <v>13600.0</v>
+      </c>
+      <c r="DY46" t="n">
+        <v>13627.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B47" t="n">
         <v>2.0</v>
@@ -18786,12 +18922,15 @@
         <v>70.0</v>
       </c>
       <c r="DX47" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="DY47" t="n">
         <v>70.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B48" t="n">
         <v>50.0</v>
@@ -19172,12 +19311,15 @@
         <v>274.0</v>
       </c>
       <c r="DX48" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="DY48" t="n">
         <v>277.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B49" t="n">
         <v>912.0</v>
@@ -19558,12 +19700,15 @@
         <v>4382.0</v>
       </c>
       <c r="DX49" t="n">
+        <v>4382.0</v>
+      </c>
+      <c r="DY49" t="n">
         <v>4382.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B50" t="n">
         <v>18.0</v>
@@ -19944,12 +20089,15 @@
         <v>345.0</v>
       </c>
       <c r="DX50" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="DY50" t="n">
         <v>345.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B51" t="n">
         <v>18.0</v>
@@ -20330,12 +20478,15 @@
         <v>142.0</v>
       </c>
       <c r="DX51" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="DY51" t="n">
         <v>142.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B52" t="n">
         <v>99.0</v>
@@ -20716,12 +20867,15 @@
         <v>412.0</v>
       </c>
       <c r="DX52" t="n">
+        <v>412.0</v>
+      </c>
+      <c r="DY52" t="n">
         <v>412.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B53" t="n">
         <v>34.0</v>
@@ -21102,12 +21256,15 @@
         <v>244.0</v>
       </c>
       <c r="DX53" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="DY53" t="n">
         <v>244.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B54" t="n">
         <v>23.0</v>
@@ -21488,12 +21645,15 @@
         <v>46.0</v>
       </c>
       <c r="DX54" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="DY54" t="n">
         <v>46.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B55" t="n">
         <v>117.0</v>
@@ -21874,12 +22034,15 @@
         <v>304.0</v>
       </c>
       <c r="DX55" t="n">
+        <v>304.0</v>
+      </c>
+      <c r="DY55" t="n">
         <v>304.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B56" t="n">
         <v>48.0</v>
@@ -22260,12 +22423,15 @@
         <v>356.0</v>
       </c>
       <c r="DX56" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="DY56" t="n">
         <v>356.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B57" t="n">
         <v>50.0</v>
@@ -22646,12 +22812,15 @@
         <v>207.0</v>
       </c>
       <c r="DX57" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="DY57" t="n">
         <v>207.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B58" t="n">
         <v>10.0</v>
@@ -23032,12 +23201,15 @@
         <v>23.0</v>
       </c>
       <c r="DX58" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DY58" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B59" t="n">
         <v>9.0</v>
@@ -23418,12 +23590,15 @@
         <v>134.0</v>
       </c>
       <c r="DX59" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="DY59" t="n">
         <v>134.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B60" t="n">
         <v>5948.0</v>
@@ -23804,12 +23979,15 @@
         <v>36289.0</v>
       </c>
       <c r="DX60" t="n">
+        <v>36460.0</v>
+      </c>
+      <c r="DY60" t="n">
         <v>36460.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
@@ -24190,12 +24368,15 @@
         <v>0.0</v>
       </c>
       <c r="DX61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY61" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B62" t="n">
         <v>228.0</v>
@@ -24576,12 +24757,15 @@
         <v>646.0</v>
       </c>
       <c r="DX62" t="n">
+        <v>646.0</v>
+      </c>
+      <c r="DY62" t="n">
         <v>646.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B63" t="n">
         <v>22.0</v>
@@ -24962,12 +25146,15 @@
         <v>126.0</v>
       </c>
       <c r="DX63" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="DY63" t="n">
         <v>126.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B64" t="n">
         <v>2000.0</v>
@@ -25348,12 +25535,15 @@
         <v>16484.0</v>
       </c>
       <c r="DX64" t="n">
+        <v>16624.0</v>
+      </c>
+      <c r="DY64" t="n">
         <v>16624.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
@@ -25734,12 +25924,15 @@
         <v>0.0</v>
       </c>
       <c r="DX65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY65" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B66" t="n">
         <v>16.0</v>
@@ -26120,12 +26313,15 @@
         <v>57.0</v>
       </c>
       <c r="DX66" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="DY66" t="n">
         <v>57.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B67" t="n">
         <v>5.0</v>
@@ -26506,12 +26702,15 @@
         <v>182.0</v>
       </c>
       <c r="DX67" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="DY67" t="n">
         <v>182.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B68" t="n">
         <v>24.0</v>
@@ -26892,12 +27091,15 @@
         <v>178.0</v>
       </c>
       <c r="DX68" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="DY68" t="n">
         <v>178.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B69" t="n">
         <v>11.0</v>
@@ -27278,12 +27480,15 @@
         <v>114.0</v>
       </c>
       <c r="DX69" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="DY69" t="n">
         <v>114.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B70" t="n">
         <v>96.0</v>
@@ -27664,12 +27869,15 @@
         <v>388.0</v>
       </c>
       <c r="DX70" t="n">
+        <v>388.0</v>
+      </c>
+      <c r="DY70" t="n">
         <v>388.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B71" t="n">
         <v>2566.0</v>
@@ -28050,12 +28258,15 @@
         <v>7945.0</v>
       </c>
       <c r="DX71" t="n">
+        <v>7945.0</v>
+      </c>
+      <c r="DY71" t="n">
         <v>7945.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
@@ -28436,12 +28647,15 @@
         <v>45.0</v>
       </c>
       <c r="DX72" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="DY72" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B73" t="n">
         <v>533.0</v>
@@ -28822,12 +29036,15 @@
         <v>3256.0</v>
       </c>
       <c r="DX73" t="n">
+        <v>3256.0</v>
+      </c>
+      <c r="DY73" t="n">
         <v>3256.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
@@ -29208,12 +29425,15 @@
         <v>0.0</v>
       </c>
       <c r="DX74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY74" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B75" t="n">
         <v>383.0</v>
@@ -29594,12 +29814,15 @@
         <v>1270.0</v>
       </c>
       <c r="DX75" t="n">
+        <v>1270.0</v>
+      </c>
+      <c r="DY75" t="n">
         <v>1270.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B76" t="n">
         <v>23.0</v>
@@ -29980,12 +30203,15 @@
         <v>179.0</v>
       </c>
       <c r="DX76" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="DY76" t="n">
         <v>179.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B77" t="n">
         <v>41.0</v>
@@ -30366,12 +30592,15 @@
         <v>690.0</v>
       </c>
       <c r="DX77" t="n">
+        <v>690.0</v>
+      </c>
+      <c r="DY77" t="n">
         <v>690.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B78" t="n">
         <v>172.0</v>
@@ -30753,11 +30982,14 @@
       </c>
       <c r="DX78" t="n">
         <v>882.0</v>
+      </c>
+      <c r="DY78" t="n">
+        <v>884.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
@@ -31138,12 +31370,15 @@
         <v>0.0</v>
       </c>
       <c r="DX79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B80" t="n">
         <v>85.0</v>
@@ -31524,12 +31759,15 @@
         <v>443.0</v>
       </c>
       <c r="DX80" t="n">
+        <v>443.0</v>
+      </c>
+      <c r="DY80" t="n">
         <v>443.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B81" t="n">
         <v>2.0</v>
@@ -31910,12 +32148,15 @@
         <v>32.0</v>
       </c>
       <c r="DX81" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="DY81" t="n">
         <v>32.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B82" t="n">
         <v>681.0</v>
@@ -32296,12 +32537,15 @@
         <v>7675.0</v>
       </c>
       <c r="DX82" t="n">
+        <v>7675.0</v>
+      </c>
+      <c r="DY82" t="n">
         <v>7675.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B83" t="n">
         <v>59.0</v>
@@ -32682,12 +32926,15 @@
         <v>209.0</v>
       </c>
       <c r="DX83" t="n">
+        <v>209.0</v>
+      </c>
+      <c r="DY83" t="n">
         <v>209.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B84" t="n">
         <v>81.0</v>
@@ -33068,12 +33315,15 @@
         <v>721.0</v>
       </c>
       <c r="DX84" t="n">
+        <v>721.0</v>
+      </c>
+      <c r="DY84" t="n">
         <v>721.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B85" t="n">
         <v>38.0</v>
@@ -33454,12 +33704,15 @@
         <v>562.0</v>
       </c>
       <c r="DX85" t="n">
+        <v>562.0</v>
+      </c>
+      <c r="DY85" t="n">
         <v>562.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
@@ -33840,12 +34093,15 @@
         <v>0.0</v>
       </c>
       <c r="DX86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY86" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B87" t="n">
         <v>508.0</v>
@@ -34226,12 +34482,15 @@
         <v>4897.0</v>
       </c>
       <c r="DX87" t="n">
+        <v>4920.0</v>
+      </c>
+      <c r="DY87" t="n">
         <v>4920.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B88" t="n">
         <v>26.0</v>
@@ -34612,12 +34871,15 @@
         <v>156.0</v>
       </c>
       <c r="DX88" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="DY88" t="n">
         <v>156.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B89" t="n">
         <v>25.0</v>
@@ -34998,12 +35260,15 @@
         <v>796.0</v>
       </c>
       <c r="DX89" t="n">
+        <v>796.0</v>
+      </c>
+      <c r="DY89" t="n">
         <v>796.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B90" t="n">
         <v>19.0</v>
@@ -35384,12 +35649,15 @@
         <v>61.0</v>
       </c>
       <c r="DX90" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="DY90" t="n">
         <v>61.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B91" t="n">
         <v>46.0</v>
@@ -35770,12 +36038,15 @@
         <v>153.0</v>
       </c>
       <c r="DX91" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="DY91" t="n">
         <v>153.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B92" t="n">
         <v>36.0</v>
@@ -36156,12 +36427,15 @@
         <v>336.0</v>
       </c>
       <c r="DX92" t="n">
+        <v>336.0</v>
+      </c>
+      <c r="DY92" t="n">
         <v>336.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B93" t="n">
         <v>34.0</v>
@@ -36542,12 +36816,15 @@
         <v>285.0</v>
       </c>
       <c r="DX93" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="DY93" t="n">
         <v>285.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
@@ -36928,12 +37205,15 @@
         <v>0.0</v>
       </c>
       <c r="DX94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY94" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B95" t="n">
         <v>919.0</v>
@@ -37314,12 +37594,15 @@
         <v>4789.0</v>
       </c>
       <c r="DX95" t="n">
+        <v>4789.0</v>
+      </c>
+      <c r="DY95" t="n">
         <v>4789.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B96" t="n">
         <v>50.0</v>
@@ -37700,12 +37983,15 @@
         <v>313.0</v>
       </c>
       <c r="DX96" t="n">
+        <v>313.0</v>
+      </c>
+      <c r="DY96" t="n">
         <v>313.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B97" t="n">
         <v>387.0</v>
@@ -38087,11 +38373,14 @@
       </c>
       <c r="DX97" t="n">
         <v>3250.0</v>
+      </c>
+      <c r="DY97" t="n">
+        <v>3252.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
@@ -38472,12 +38761,15 @@
         <v>0.0</v>
       </c>
       <c r="DX98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY98" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B99" t="n">
         <v>9.0</v>
@@ -38858,12 +39150,15 @@
         <v>98.0</v>
       </c>
       <c r="DX99" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="DY99" t="n">
         <v>98.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B100" t="n">
         <v>15.0</v>
@@ -39244,12 +39539,15 @@
         <v>50.0</v>
       </c>
       <c r="DX100" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="DY100" t="n">
         <v>50.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B101" t="n">
         <v>61.0</v>
@@ -39630,12 +39928,15 @@
         <v>454.0</v>
       </c>
       <c r="DX101" t="n">
+        <v>454.0</v>
+      </c>
+      <c r="DY101" t="n">
         <v>454.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B102" t="n">
         <v>25.0</v>
@@ -40016,12 +40317,15 @@
         <v>55.0</v>
       </c>
       <c r="DX102" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="DY102" t="n">
         <v>55.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B103" t="n">
         <v>505.0</v>
@@ -40402,12 +40706,15 @@
         <v>2495.0</v>
       </c>
       <c r="DX103" t="n">
+        <v>2495.0</v>
+      </c>
+      <c r="DY103" t="n">
         <v>2495.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
@@ -40788,12 +41095,15 @@
         <v>0.0</v>
       </c>
       <c r="DX104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY104" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B105" t="n">
         <v>289.0</v>
@@ -41174,12 +41484,15 @@
         <v>2223.0</v>
       </c>
       <c r="DX105" t="n">
+        <v>2224.0</v>
+      </c>
+      <c r="DY105" t="n">
         <v>2224.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B106" t="n">
         <v>4.0</v>
@@ -41560,12 +41873,15 @@
         <v>102.0</v>
       </c>
       <c r="DX106" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="DY106" t="n">
         <v>102.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B107" t="n">
         <v>30.0</v>
@@ -41946,12 +42262,15 @@
         <v>237.0</v>
       </c>
       <c r="DX107" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="DY107" t="n">
         <v>237.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B108" t="n">
         <v>743.0</v>
@@ -42332,12 +42651,15 @@
         <v>1828.0</v>
       </c>
       <c r="DX108" t="n">
+        <v>1828.0</v>
+      </c>
+      <c r="DY108" t="n">
         <v>1828.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B109" t="n">
         <v>5.0</v>
@@ -42718,12 +43040,15 @@
         <v>43.0</v>
       </c>
       <c r="DX109" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="DY109" t="n">
         <v>43.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B110" t="n">
         <v>392.0</v>
@@ -43104,12 +43429,15 @@
         <v>1847.0</v>
       </c>
       <c r="DX110" t="n">
+        <v>1847.0</v>
+      </c>
+      <c r="DY110" t="n">
         <v>1847.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
@@ -43490,12 +43818,15 @@
         <v>25934.0</v>
       </c>
       <c r="DX111" t="n">
+        <v>25934.0</v>
+      </c>
+      <c r="DY111" t="n">
         <v>25934.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B112" t="n">
         <v>90.0</v>
@@ -43877,11 +44208,14 @@
       </c>
       <c r="DX112" t="n">
         <v>663.0</v>
+      </c>
+      <c r="DY112" t="n">
+        <v>664.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B113" t="n">
         <v>77.0</v>
@@ -44262,12 +44596,15 @@
         <v>271.0</v>
       </c>
       <c r="DX113" t="n">
+        <v>271.0</v>
+      </c>
+      <c r="DY113" t="n">
         <v>271.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B114" t="n">
         <v>235.0</v>
@@ -44648,12 +44985,15 @@
         <v>2085.0</v>
       </c>
       <c r="DX114" t="n">
+        <v>2085.0</v>
+      </c>
+      <c r="DY114" t="n">
         <v>2085.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B115" t="n">
         <v>475.0</v>
@@ -45035,11 +45375,14 @@
       </c>
       <c r="DX115" t="n">
         <v>1423.0</v>
+      </c>
+      <c r="DY115" t="n">
+        <v>1424.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B116" t="n">
         <v>175.0</v>
@@ -45420,12 +45763,15 @@
         <v>695.0</v>
       </c>
       <c r="DX116" t="n">
+        <v>699.0</v>
+      </c>
+      <c r="DY116" t="n">
         <v>699.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B117" t="n">
         <v>709.0</v>
@@ -45806,12 +46152,15 @@
         <v>1520.0</v>
       </c>
       <c r="DX117" t="n">
+        <v>1521.0</v>
+      </c>
+      <c r="DY117" t="n">
         <v>1521.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B118" t="n">
         <v>9.0</v>
@@ -46192,12 +46541,15 @@
         <v>79.0</v>
       </c>
       <c r="DX118" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="DY118" t="n">
         <v>79.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
@@ -46578,12 +46930,15 @@
         <v>0.0</v>
       </c>
       <c r="DX119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY119" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B120" t="n">
         <v>98.0</v>
@@ -46964,12 +47319,15 @@
         <v>467.0</v>
       </c>
       <c r="DX120" t="n">
+        <v>467.0</v>
+      </c>
+      <c r="DY120" t="n">
         <v>467.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B121" t="n">
         <v>12.0</v>
@@ -47351,11 +47709,14 @@
       </c>
       <c r="DX121" t="n">
         <v>66.0</v>
+      </c>
+      <c r="DY121" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B122" t="n">
         <v>11.0</v>
@@ -47736,12 +48097,15 @@
         <v>78.0</v>
       </c>
       <c r="DX122" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="DY122" t="n">
         <v>78.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B123" t="n">
         <v>3.0</v>
@@ -48122,12 +48486,15 @@
         <v>250.0</v>
       </c>
       <c r="DX123" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="DY123" t="n">
         <v>250.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B124" t="n">
         <v>357.0</v>
@@ -48508,12 +48875,15 @@
         <v>1393.0</v>
       </c>
       <c r="DX124" t="n">
+        <v>1393.0</v>
+      </c>
+      <c r="DY124" t="n">
         <v>1393.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B125" t="n">
         <v>4.0</v>
@@ -48894,12 +49264,15 @@
         <v>42.0</v>
       </c>
       <c r="DX125" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="DY125" t="n">
         <v>42.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
@@ -49280,12 +49653,15 @@
         <v>0.0</v>
       </c>
       <c r="DX126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY126" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B127" t="n">
         <v>2.0</v>
@@ -49666,12 +50042,15 @@
         <v>33.0</v>
       </c>
       <c r="DX127" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="DY127" t="n">
         <v>33.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B128" t="n">
         <v>50.0</v>
@@ -50052,12 +50431,15 @@
         <v>487.0</v>
       </c>
       <c r="DX128" t="n">
+        <v>489.0</v>
+      </c>
+      <c r="DY128" t="n">
         <v>489.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B129" t="n">
         <v>353.0</v>
@@ -50438,12 +50820,15 @@
         <v>2609.0</v>
       </c>
       <c r="DX129" t="n">
+        <v>2609.0</v>
+      </c>
+      <c r="DY129" t="n">
         <v>2609.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B130" t="n">
         <v>121.0</v>
@@ -50824,12 +51209,15 @@
         <v>677.0</v>
       </c>
       <c r="DX130" t="n">
+        <v>677.0</v>
+      </c>
+      <c r="DY130" t="n">
         <v>677.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B131" t="n">
         <v>25.0</v>
@@ -51210,12 +51598,15 @@
         <v>206.0</v>
       </c>
       <c r="DX131" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="DY131" t="n">
         <v>206.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B132" t="n">
         <v>376.0</v>
@@ -51596,12 +51987,15 @@
         <v>2248.0</v>
       </c>
       <c r="DX132" t="n">
+        <v>2248.0</v>
+      </c>
+      <c r="DY132" t="n">
         <v>2248.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B133" t="n">
         <v>132.0</v>
@@ -51982,12 +52376,15 @@
         <v>1404.0</v>
       </c>
       <c r="DX133" t="n">
+        <v>1404.0</v>
+      </c>
+      <c r="DY133" t="n">
         <v>1404.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
@@ -52368,12 +52765,15 @@
         <v>16.0</v>
       </c>
       <c r="DX134" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="DY134" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B135" t="n">
         <v>4.0</v>
@@ -52754,12 +53154,15 @@
         <v>44.0</v>
       </c>
       <c r="DX135" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="DY135" t="n">
         <v>44.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B136" t="n">
         <v>78.0</v>
@@ -53140,12 +53543,15 @@
         <v>2061.0</v>
       </c>
       <c r="DX136" t="n">
+        <v>2061.0</v>
+      </c>
+      <c r="DY136" t="n">
         <v>2061.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B137" t="n">
         <v>11.0</v>
@@ -53526,12 +53932,15 @@
         <v>54.0</v>
       </c>
       <c r="DX137" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="DY137" t="n">
         <v>54.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
@@ -53912,12 +54321,15 @@
         <v>6.0</v>
       </c>
       <c r="DX138" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="DY138" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B139" t="n">
         <v>1.0</v>
@@ -54298,12 +54710,15 @@
         <v>14.0</v>
       </c>
       <c r="DX139" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="DY139" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B140" t="n">
         <v>11.0</v>
@@ -54684,12 +55099,15 @@
         <v>585.0</v>
       </c>
       <c r="DX140" t="n">
+        <v>586.0</v>
+      </c>
+      <c r="DY140" t="n">
         <v>586.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B141" t="n">
         <v>12.0</v>
@@ -55070,12 +55488,15 @@
         <v>83.0</v>
       </c>
       <c r="DX141" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="DY141" t="n">
         <v>83.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B142" t="n">
         <v>46.0</v>
@@ -55456,12 +55877,15 @@
         <v>3080.0</v>
       </c>
       <c r="DX142" t="n">
+        <v>3080.0</v>
+      </c>
+      <c r="DY142" t="n">
         <v>3080.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B143" t="n">
         <v>147.0</v>
@@ -55842,12 +56266,15 @@
         <v>435.0</v>
       </c>
       <c r="DX143" t="n">
+        <v>435.0</v>
+      </c>
+      <c r="DY143" t="n">
         <v>435.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B144" t="n">
         <v>37.0</v>
@@ -56228,12 +56655,15 @@
         <v>324.0</v>
       </c>
       <c r="DX144" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="DY144" t="n">
         <v>324.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B145" t="n">
         <v>3.0</v>
@@ -56614,12 +57044,15 @@
         <v>133.0</v>
       </c>
       <c r="DX145" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="DY145" t="n">
         <v>133.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B146" t="n">
         <v>35.0</v>
@@ -57000,12 +57433,15 @@
         <v>435.0</v>
       </c>
       <c r="DX146" t="n">
+        <v>435.0</v>
+      </c>
+      <c r="DY146" t="n">
         <v>435.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B147" t="n">
         <v>160.0</v>
@@ -57387,11 +57823,14 @@
       </c>
       <c r="DX147" t="n">
         <v>1085.0</v>
+      </c>
+      <c r="DY147" t="n">
+        <v>1087.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B148" t="n">
         <v>58.0</v>
@@ -57772,12 +58211,15 @@
         <v>330.0</v>
       </c>
       <c r="DX148" t="n">
+        <v>330.0</v>
+      </c>
+      <c r="DY148" t="n">
         <v>330.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B149" t="n">
         <v>583.0</v>
@@ -58158,12 +58600,15 @@
         <v>1615.0</v>
       </c>
       <c r="DX149" t="n">
+        <v>1621.0</v>
+      </c>
+      <c r="DY149" t="n">
         <v>1621.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B150" t="n">
         <v>120.0</v>
@@ -58544,12 +58989,15 @@
         <v>575.0</v>
       </c>
       <c r="DX150" t="n">
+        <v>575.0</v>
+      </c>
+      <c r="DY150" t="n">
         <v>575.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B151" t="n">
         <v>6.0</v>
@@ -58930,12 +59378,15 @@
         <v>24.0</v>
       </c>
       <c r="DX151" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DY151" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B152" t="n">
         <v>60.0</v>
@@ -59316,12 +59767,15 @@
         <v>249.0</v>
       </c>
       <c r="DX152" t="n">
+        <v>249.0</v>
+      </c>
+      <c r="DY152" t="n">
         <v>249.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B153" t="n">
         <v>9.0</v>
@@ -59702,12 +60156,15 @@
         <v>449.0</v>
       </c>
       <c r="DX153" t="n">
+        <v>449.0</v>
+      </c>
+      <c r="DY153" t="n">
         <v>449.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B154" t="n">
         <v>1.0</v>
@@ -60088,12 +60545,15 @@
         <v>0.0</v>
       </c>
       <c r="DX154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
@@ -60474,12 +60934,15 @@
         <v>0.0</v>
       </c>
       <c r="DX155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY155" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
@@ -60860,12 +61323,15 @@
         <v>0.0</v>
       </c>
       <c r="DX156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY156" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B157" t="n">
         <v>37.0</v>
@@ -61246,12 +61712,15 @@
         <v>156.0</v>
       </c>
       <c r="DX157" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="DY157" t="n">
         <v>156.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
@@ -61632,12 +62101,15 @@
         <v>0.0</v>
       </c>
       <c r="DX158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY158" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
@@ -62018,12 +62490,15 @@
         <v>19.0</v>
       </c>
       <c r="DX159" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="DY159" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B160" t="n">
         <v>46.0</v>
@@ -62404,12 +62879,15 @@
         <v>232.0</v>
       </c>
       <c r="DX160" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="DY160" t="n">
         <v>232.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B161" t="n">
         <v>13.0</v>
@@ -62790,12 +63268,15 @@
         <v>183.0</v>
       </c>
       <c r="DX161" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="DY161" t="n">
         <v>183.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B162" t="n">
         <v>58.0</v>
@@ -63176,12 +63657,15 @@
         <v>251.0</v>
       </c>
       <c r="DX162" t="n">
+        <v>251.0</v>
+      </c>
+      <c r="DY162" t="n">
         <v>251.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B163" t="n">
         <v>11.0</v>
@@ -63562,12 +64046,15 @@
         <v>146.0</v>
       </c>
       <c r="DX163" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="DY163" t="n">
         <v>146.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B164" t="n">
         <v>49.0</v>
@@ -63949,11 +64436,14 @@
       </c>
       <c r="DX164" t="n">
         <v>397.0</v>
+      </c>
+      <c r="DY164" t="n">
+        <v>398.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
@@ -64334,12 +64824,15 @@
         <v>0.0</v>
       </c>
       <c r="DX165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY165" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B166" t="n">
         <v>343.0</v>
@@ -64721,11 +65214,14 @@
       </c>
       <c r="DX166" t="n">
         <v>1008.0</v>
+      </c>
+      <c r="DY166" t="n">
+        <v>1010.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B167" t="n">
         <v>6.0</v>
@@ -65106,12 +65602,15 @@
         <v>65.0</v>
       </c>
       <c r="DX167" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="DY167" t="n">
         <v>65.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
@@ -65492,12 +65991,15 @@
         <v>0.0</v>
       </c>
       <c r="DX168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY168" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B169" t="n">
         <v>111.0</v>
@@ -65878,12 +66380,15 @@
         <v>1026.0</v>
       </c>
       <c r="DX169" t="n">
+        <v>1026.0</v>
+      </c>
+      <c r="DY169" t="n">
         <v>1026.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B170" t="n">
         <v>5.0</v>
@@ -66265,11 +66770,14 @@
       </c>
       <c r="DX170" t="n">
         <v>57.0</v>
+      </c>
+      <c r="DY170" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
@@ -66650,12 +67158,15 @@
         <v>0.0</v>
       </c>
       <c r="DX171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY171" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B172" t="n">
         <v>36.0</v>
@@ -67036,12 +67547,15 @@
         <v>306.0</v>
       </c>
       <c r="DX172" t="n">
+        <v>306.0</v>
+      </c>
+      <c r="DY172" t="n">
         <v>306.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B173" t="n">
         <v>865.0</v>
@@ -67422,12 +67936,15 @@
         <v>8629.0</v>
       </c>
       <c r="DX173" t="n">
+        <v>8629.0</v>
+      </c>
+      <c r="DY173" t="n">
         <v>8629.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B174" t="n">
         <v>159.0</v>
@@ -67808,12 +68325,15 @@
         <v>306.0</v>
       </c>
       <c r="DX174" t="n">
+        <v>306.0</v>
+      </c>
+      <c r="DY174" t="n">
         <v>306.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B175" t="n">
         <v>58.0</v>
@@ -68194,12 +68714,15 @@
         <v>270.0</v>
       </c>
       <c r="DX175" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="DY175" t="n">
         <v>270.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B176" t="n">
         <v>2.0</v>
@@ -68580,12 +69103,15 @@
         <v>49.0</v>
       </c>
       <c r="DX176" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="DY176" t="n">
         <v>49.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B177" t="n">
         <v>299.0</v>
@@ -68967,11 +69493,14 @@
       </c>
       <c r="DX177" t="n">
         <v>959.0</v>
+      </c>
+      <c r="DY177" t="n">
+        <v>961.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B178" t="n">
         <v>529.0</v>
@@ -69352,12 +69881,15 @@
         <v>2205.0</v>
       </c>
       <c r="DX178" t="n">
+        <v>2205.0</v>
+      </c>
+      <c r="DY178" t="n">
         <v>2205.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B179" t="n">
         <v>95.0</v>
@@ -69738,12 +70270,15 @@
         <v>291.0</v>
       </c>
       <c r="DX179" t="n">
+        <v>291.0</v>
+      </c>
+      <c r="DY179" t="n">
         <v>291.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
@@ -70124,12 +70659,15 @@
         <v>0.0</v>
       </c>
       <c r="DX180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY180" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B181" t="n">
         <v>5083.0</v>
@@ -70511,11 +71049,14 @@
       </c>
       <c r="DX181" t="n">
         <v>10198.0</v>
+      </c>
+      <c r="DY181" t="n">
+        <v>10207.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B182" t="n">
         <v>15.0</v>
@@ -70896,12 +71437,15 @@
         <v>106.0</v>
       </c>
       <c r="DX182" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="DY182" t="n">
         <v>106.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B183" t="n">
         <v>7.0</v>
@@ -71282,12 +71826,15 @@
         <v>128.0</v>
       </c>
       <c r="DX183" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="DY183" t="n">
         <v>128.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B184" t="n">
         <v>541.0</v>
@@ -71668,12 +72215,15 @@
         <v>3831.0</v>
       </c>
       <c r="DX184" t="n">
+        <v>3831.0</v>
+      </c>
+      <c r="DY184" t="n">
         <v>3831.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B185" t="n">
         <v>76.0</v>
@@ -72054,12 +72604,15 @@
         <v>372.0</v>
       </c>
       <c r="DX185" t="n">
+        <v>372.0</v>
+      </c>
+      <c r="DY185" t="n">
         <v>372.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B186" t="n">
         <v>109.0</v>
@@ -72440,12 +72993,15 @@
         <v>557.0</v>
       </c>
       <c r="DX186" t="n">
+        <v>558.0</v>
+      </c>
+      <c r="DY186" t="n">
         <v>558.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B187" t="n">
         <v>414.0</v>
@@ -72826,12 +73382,15 @@
         <v>2951.0</v>
       </c>
       <c r="DX187" t="n">
+        <v>2951.0</v>
+      </c>
+      <c r="DY187" t="n">
         <v>2951.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B188" t="n">
         <v>80.0</v>
@@ -73212,12 +73771,15 @@
         <v>341.0</v>
       </c>
       <c r="DX188" t="n">
+        <v>341.0</v>
+      </c>
+      <c r="DY188" t="n">
         <v>341.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B189" t="n">
         <v>66.0</v>
@@ -73598,12 +74160,15 @@
         <v>270.0</v>
       </c>
       <c r="DX189" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="DY189" t="n">
         <v>270.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B190" t="n">
         <v>380.0</v>
@@ -73984,12 +74549,15 @@
         <v>1587.0</v>
       </c>
       <c r="DX190" t="n">
+        <v>1587.0</v>
+      </c>
+      <c r="DY190" t="n">
         <v>1587.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
@@ -74370,12 +74938,15 @@
         <v>0.0</v>
       </c>
       <c r="DX191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY191" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B192" t="n">
         <v>14.0</v>
@@ -74756,12 +75327,15 @@
         <v>168.0</v>
       </c>
       <c r="DX192" t="n">
+        <v>168.0</v>
+      </c>
+      <c r="DY192" t="n">
         <v>168.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B193" t="n">
         <v>70.0</v>
@@ -75142,12 +75716,15 @@
         <v>377.0</v>
       </c>
       <c r="DX193" t="n">
+        <v>377.0</v>
+      </c>
+      <c r="DY193" t="n">
         <v>377.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
@@ -75528,12 +76105,15 @@
         <v>0.0</v>
       </c>
       <c r="DX194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY194" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B195" t="n">
         <v>39.0</v>
@@ -75914,12 +76494,15 @@
         <v>173.0</v>
       </c>
       <c r="DX195" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="DY195" t="n">
         <v>173.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
@@ -76300,12 +76883,15 @@
         <v>35.0</v>
       </c>
       <c r="DX196" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="DY196" t="n">
         <v>35.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B197" t="n">
         <v>39.0</v>
@@ -76686,12 +77272,15 @@
         <v>254.0</v>
       </c>
       <c r="DX197" t="n">
+        <v>254.0</v>
+      </c>
+      <c r="DY197" t="n">
         <v>254.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B198" t="n">
         <v>299.0</v>
@@ -77072,12 +77661,15 @@
         <v>702.0</v>
       </c>
       <c r="DX198" t="n">
+        <v>702.0</v>
+      </c>
+      <c r="DY198" t="n">
         <v>702.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B199" t="n">
         <v>3.0</v>
@@ -77458,12 +78050,15 @@
         <v>62.0</v>
       </c>
       <c r="DX199" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="DY199" t="n">
         <v>61.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B200" t="n">
         <v>1.0</v>
@@ -77844,12 +78439,15 @@
         <v>3.0</v>
       </c>
       <c r="DX200" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DY200" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B201" t="n">
         <v>60.0</v>
@@ -78230,12 +78828,15 @@
         <v>405.0</v>
       </c>
       <c r="DX201" t="n">
+        <v>405.0</v>
+      </c>
+      <c r="DY201" t="n">
         <v>405.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B202" t="n">
         <v>326.0</v>
@@ -78616,12 +79217,15 @@
         <v>1909.0</v>
       </c>
       <c r="DX202" t="n">
+        <v>1909.0</v>
+      </c>
+      <c r="DY202" t="n">
         <v>1909.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B203" t="n">
         <v>77.0</v>
@@ -79002,12 +79606,15 @@
         <v>488.0</v>
       </c>
       <c r="DX203" t="n">
+        <v>488.0</v>
+      </c>
+      <c r="DY203" t="n">
         <v>488.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B204" t="n">
         <v>307.0</v>
@@ -79389,11 +79996,14 @@
       </c>
       <c r="DX204" t="n">
         <v>1650.0</v>
+      </c>
+      <c r="DY204" t="n">
+        <v>1652.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B205" t="n">
         <v>86.0</v>
@@ -79774,12 +80384,15 @@
         <v>328.0</v>
       </c>
       <c r="DX205" t="n">
+        <v>328.0</v>
+      </c>
+      <c r="DY205" t="n">
         <v>328.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B206" t="n">
         <v>58.0</v>
@@ -80160,12 +80773,15 @@
         <v>210.0</v>
       </c>
       <c r="DX206" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="DY206" t="n">
         <v>210.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B207" t="n">
         <v>49.0</v>
@@ -80546,12 +81162,15 @@
         <v>295.0</v>
       </c>
       <c r="DX207" t="n">
+        <v>295.0</v>
+      </c>
+      <c r="DY207" t="n">
         <v>295.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
@@ -80932,12 +81551,15 @@
         <v>964.0</v>
       </c>
       <c r="DX208" t="n">
+        <v>964.0</v>
+      </c>
+      <c r="DY208" t="n">
         <v>964.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B209" t="n">
         <v>14.0</v>
@@ -81319,11 +81941,14 @@
       </c>
       <c r="DX209" t="n">
         <v>251.0</v>
+      </c>
+      <c r="DY209" t="n">
+        <v>252.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B210" t="n">
         <v>20.0</v>
@@ -81704,12 +82329,15 @@
         <v>111.0</v>
       </c>
       <c r="DX210" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="DY210" t="n">
         <v>111.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
@@ -82090,12 +82718,15 @@
         <v>78.0</v>
       </c>
       <c r="DX211" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="DY211" t="n">
         <v>78.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B212" t="n">
         <v>41.0</v>
@@ -82476,12 +83107,15 @@
         <v>123.0</v>
       </c>
       <c r="DX212" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="DY212" t="n">
         <v>123.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B213" t="n">
         <v>182.0</v>
@@ -82863,11 +83497,14 @@
       </c>
       <c r="DX213" t="n">
         <v>661.0</v>
+      </c>
+      <c r="DY213" t="n">
+        <v>663.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B214" t="n">
         <v>5.0</v>
@@ -83248,12 +83885,15 @@
         <v>24.0</v>
       </c>
       <c r="DX214" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DY214" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B215" t="n">
         <v>2052.0</v>
@@ -83634,12 +84274,15 @@
         <v>7913.0</v>
       </c>
       <c r="DX215" t="n">
+        <v>7913.0</v>
+      </c>
+      <c r="DY215" t="n">
         <v>7913.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B216" t="n">
         <v>59.0</v>
@@ -84020,12 +84663,15 @@
         <v>467.0</v>
       </c>
       <c r="DX216" t="n">
+        <v>467.0</v>
+      </c>
+      <c r="DY216" t="n">
         <v>467.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B217" t="n">
         <v>37.0</v>
@@ -84406,12 +85052,15 @@
         <v>1543.0</v>
       </c>
       <c r="DX217" t="n">
+        <v>1554.0</v>
+      </c>
+      <c r="DY217" t="n">
         <v>1554.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B218" t="n">
         <v>77.0</v>
@@ -84792,12 +85441,15 @@
         <v>339.0</v>
       </c>
       <c r="DX218" t="n">
+        <v>339.0</v>
+      </c>
+      <c r="DY218" t="n">
         <v>339.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B219" t="n">
         <v>1.0</v>
@@ -85178,12 +85830,15 @@
         <v>59.0</v>
       </c>
       <c r="DX219" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="DY219" t="n">
         <v>59.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B220" t="n">
         <v>10.0</v>
@@ -85564,12 +86219,15 @@
         <v>105.0</v>
       </c>
       <c r="DX220" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="DY220" t="n">
         <v>105.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B221" t="n">
         <v>19.0</v>
@@ -85950,12 +86608,15 @@
         <v>196.0</v>
       </c>
       <c r="DX221" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="DY221" t="n">
         <v>196.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B222" t="n">
         <v>69.0</v>
@@ -86336,12 +86997,15 @@
         <v>363.0</v>
       </c>
       <c r="DX222" t="n">
+        <v>363.0</v>
+      </c>
+      <c r="DY222" t="n">
         <v>363.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B223" t="n">
         <v>6705.0</v>
@@ -86723,11 +87387,14 @@
       </c>
       <c r="DX223" t="n">
         <v>37051.0</v>
+      </c>
+      <c r="DY223" t="n">
+        <v>37172.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B224" t="n">
         <v>2484.0</v>
@@ -87109,11 +87776,14 @@
       </c>
       <c r="DX224" t="n">
         <v>8197.0</v>
+      </c>
+      <c r="DY224" t="n">
+        <v>8202.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B225" t="n">
         <v>1.0</v>
@@ -87494,12 +88164,15 @@
         <v>11.0</v>
       </c>
       <c r="DX225" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="DY225" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
@@ -87880,12 +88553,15 @@
         <v>0.0</v>
       </c>
       <c r="DX226" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY226" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B227" t="n">
         <v>10.0</v>
@@ -88266,12 +88942,15 @@
         <v>23.0</v>
       </c>
       <c r="DX227" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DY227" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B228" t="n">
         <v>138.0</v>
@@ -88652,12 +89331,15 @@
         <v>952.0</v>
       </c>
       <c r="DX228" t="n">
+        <v>953.0</v>
+      </c>
+      <c r="DY228" t="n">
         <v>953.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B229" t="n">
         <v>1242.0</v>
@@ -89039,11 +89721,14 @@
       </c>
       <c r="DX229" t="n">
         <v>8080.0</v>
+      </c>
+      <c r="DY229" t="n">
+        <v>8082.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
@@ -89424,12 +90109,15 @@
         <v>0.0</v>
       </c>
       <c r="DX230" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY230" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B231" t="n">
         <v>21.0</v>
@@ -89811,11 +90499,14 @@
       </c>
       <c r="DX231" t="n">
         <v>197.0</v>
+      </c>
+      <c r="DY231" t="n">
+        <v>198.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B232" t="n">
         <v>129.0</v>
@@ -90196,12 +90887,15 @@
         <v>671.0</v>
       </c>
       <c r="DX232" t="n">
+        <v>671.0</v>
+      </c>
+      <c r="DY232" t="n">
         <v>671.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B233" t="n">
         <v>291.0</v>
@@ -90583,11 +91277,14 @@
       </c>
       <c r="DX233" t="n">
         <v>1865.0</v>
+      </c>
+      <c r="DY233" t="n">
+        <v>1868.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B234" t="n">
         <v>51.0</v>
@@ -90968,12 +91665,15 @@
         <v>304.0</v>
       </c>
       <c r="DX234" t="n">
+        <v>304.0</v>
+      </c>
+      <c r="DY234" t="n">
         <v>304.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B235" t="n">
         <v>35.0</v>
@@ -91354,12 +92054,15 @@
         <v>117.0</v>
       </c>
       <c r="DX235" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="DY235" t="n">
         <v>117.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
@@ -91740,12 +92443,15 @@
         <v>0.0</v>
       </c>
       <c r="DX236" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY236" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B237" t="n">
         <v>247.0</v>
@@ -92126,12 +92832,15 @@
         <v>1496.0</v>
       </c>
       <c r="DX237" t="n">
+        <v>1496.0</v>
+      </c>
+      <c r="DY237" t="n">
         <v>1496.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B238" t="n">
         <v>9.0</v>
@@ -92512,12 +93221,15 @@
         <v>9.0</v>
       </c>
       <c r="DX238" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="DY238" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B239" t="n">
         <v>170.0</v>
@@ -92899,11 +93611,14 @@
       </c>
       <c r="DX239" t="n">
         <v>833.0</v>
+      </c>
+      <c r="DY239" t="n">
+        <v>834.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B240" t="n">
         <v>88.0</v>
@@ -93285,11 +94000,14 @@
       </c>
       <c r="DX240" t="n">
         <v>464.0</v>
+      </c>
+      <c r="DY240" t="n">
+        <v>471.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B241" t="n">
         <v>83.0</v>
@@ -93670,12 +94388,15 @@
         <v>466.0</v>
       </c>
       <c r="DX241" t="n">
+        <v>466.0</v>
+      </c>
+      <c r="DY241" t="n">
         <v>466.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B242" t="n">
         <v>62.0</v>
@@ -94057,11 +94778,14 @@
       </c>
       <c r="DX242" t="n">
         <v>638.0</v>
+      </c>
+      <c r="DY242" t="n">
+        <v>639.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
@@ -94442,12 +95166,15 @@
         <v>0.0</v>
       </c>
       <c r="DX243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY243" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B244" t="n">
         <v>127.0</v>
@@ -94828,12 +95555,15 @@
         <v>393.0</v>
       </c>
       <c r="DX244" t="n">
+        <v>394.0</v>
+      </c>
+      <c r="DY244" t="n">
         <v>394.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B245" t="n">
         <v>2.0</v>
@@ -95214,12 +95944,15 @@
         <v>45.0</v>
       </c>
       <c r="DX245" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="DY245" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
@@ -95600,12 +96333,15 @@
         <v>0.0</v>
       </c>
       <c r="DX246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY246" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B247" t="n">
         <v>46.0</v>
@@ -95986,12 +96722,15 @@
         <v>281.0</v>
       </c>
       <c r="DX247" t="n">
+        <v>281.0</v>
+      </c>
+      <c r="DY247" t="n">
         <v>281.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
@@ -96372,12 +97111,15 @@
         <v>175.0</v>
       </c>
       <c r="DX248" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="DY248" t="n">
         <v>175.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B249" t="n">
         <v>188.0</v>
@@ -96758,12 +97500,15 @@
         <v>5485.0</v>
       </c>
       <c r="DX249" t="n">
+        <v>5485.0</v>
+      </c>
+      <c r="DY249" t="n">
         <v>5485.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B250" t="n">
         <v>86.0</v>
@@ -97145,11 +97890,14 @@
       </c>
       <c r="DX250" t="n">
         <v>1053.0</v>
+      </c>
+      <c r="DY250" t="n">
+        <v>1054.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B251" t="n">
         <v>50.0</v>
@@ -97530,12 +98278,15 @@
         <v>182.0</v>
       </c>
       <c r="DX251" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="DY251" t="n">
         <v>182.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B252" t="n">
         <v>122.0</v>
@@ -97916,12 +98667,15 @@
         <v>1142.0</v>
       </c>
       <c r="DX252" t="n">
+        <v>1142.0</v>
+      </c>
+      <c r="DY252" t="n">
         <v>1142.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B253" t="n">
         <v>235.0</v>
@@ -98302,12 +99056,15 @@
         <v>1381.0</v>
       </c>
       <c r="DX253" t="n">
+        <v>1381.0</v>
+      </c>
+      <c r="DY253" t="n">
         <v>1381.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
@@ -98688,12 +99445,15 @@
         <v>0.0</v>
       </c>
       <c r="DX254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DY254" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B255" t="n">
         <v>41.0</v>
@@ -99074,12 +99834,15 @@
         <v>227.0</v>
       </c>
       <c r="DX255" t="n">
+        <v>227.0</v>
+      </c>
+      <c r="DY255" t="n">
         <v>227.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B256" t="n">
         <v>2.0</v>
@@ -99460,12 +100223,15 @@
         <v>204.0</v>
       </c>
       <c r="DX256" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="DY256" t="n">
         <v>204.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B257" t="n">
         <v>11.0</v>
@@ -99846,6 +100612,9 @@
         <v>201.0</v>
       </c>
       <c r="DX257" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="DY257" t="n">
         <v>201.0</v>
       </c>
     </row>
